--- a/data/pca/factorExposure/factorExposure_2015-09-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02627135912975063</v>
+        <v>-0.0196609956454212</v>
       </c>
       <c r="C2">
-        <v>0.03147968089415928</v>
+        <v>-0.04418967692327645</v>
       </c>
       <c r="D2">
-        <v>0.1263535012717555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1360884785276766</v>
+      </c>
+      <c r="E2">
+        <v>-0.01561350570303063</v>
+      </c>
+      <c r="F2">
+        <v>0.001417009747267682</v>
+      </c>
+      <c r="G2">
+        <v>-0.1122951749675629</v>
+      </c>
+      <c r="H2">
+        <v>0.008825007256952438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.005025080521947381</v>
+        <v>0.01047224712025273</v>
       </c>
       <c r="C3">
-        <v>0.05872786067957758</v>
+        <v>-0.04176697801722803</v>
       </c>
       <c r="D3">
-        <v>0.07678799813065279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05354849849001168</v>
+      </c>
+      <c r="E3">
+        <v>-0.04433609511791092</v>
+      </c>
+      <c r="F3">
+        <v>0.006704831326935208</v>
+      </c>
+      <c r="G3">
+        <v>-0.1247950787876334</v>
+      </c>
+      <c r="H3">
+        <v>-0.03239851615746336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04940012348058628</v>
+        <v>-0.04024667363046163</v>
       </c>
       <c r="C4">
-        <v>0.06736566571253085</v>
+        <v>-0.08434179688876983</v>
       </c>
       <c r="D4">
-        <v>0.1337278632591141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1512746436481932</v>
+      </c>
+      <c r="E4">
+        <v>-0.03372536481231191</v>
+      </c>
+      <c r="F4">
+        <v>0.0750479207440137</v>
+      </c>
+      <c r="G4">
+        <v>0.01360357002372272</v>
+      </c>
+      <c r="H4">
+        <v>-0.03908896272193363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03225818754709642</v>
+        <v>-0.03161162210250126</v>
       </c>
       <c r="C6">
-        <v>0.02399108816349527</v>
+        <v>-0.03310035333738232</v>
       </c>
       <c r="D6">
-        <v>0.1572216165762743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1394367297812499</v>
+      </c>
+      <c r="E6">
+        <v>0.01607722114749438</v>
+      </c>
+      <c r="F6">
+        <v>0.05964033193286474</v>
+      </c>
+      <c r="G6">
+        <v>-0.05663765553957825</v>
+      </c>
+      <c r="H6">
+        <v>-0.01411847389853656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01692581198253429</v>
+        <v>-0.01204132563240138</v>
       </c>
       <c r="C7">
-        <v>0.03196593720147355</v>
+        <v>-0.03849929156702555</v>
       </c>
       <c r="D7">
-        <v>0.1195263066406127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09958348015387158</v>
+      </c>
+      <c r="E7">
+        <v>0.03191224746461174</v>
+      </c>
+      <c r="F7">
+        <v>0.02002857943350613</v>
+      </c>
+      <c r="G7">
+        <v>-0.05700103208084627</v>
+      </c>
+      <c r="H7">
+        <v>-0.041957298152576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0111322213285685</v>
+        <v>-0.004166538216641509</v>
       </c>
       <c r="C8">
-        <v>0.03520626243768934</v>
+        <v>-0.04028175060093236</v>
       </c>
       <c r="D8">
-        <v>0.07720549798068045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08137791499586863</v>
+      </c>
+      <c r="E8">
+        <v>0.0009748648068528407</v>
+      </c>
+      <c r="F8">
+        <v>0.05108771548033201</v>
+      </c>
+      <c r="G8">
+        <v>-0.07851356378917186</v>
+      </c>
+      <c r="H8">
+        <v>0.03333479952115617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03845747071831633</v>
+        <v>-0.02980517505347331</v>
       </c>
       <c r="C9">
-        <v>0.06057873780019889</v>
+        <v>-0.07294322338919258</v>
       </c>
       <c r="D9">
-        <v>0.1239830309095745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1268762223705017</v>
+      </c>
+      <c r="E9">
+        <v>-0.02035756495682778</v>
+      </c>
+      <c r="F9">
+        <v>0.04651402943603405</v>
+      </c>
+      <c r="G9">
+        <v>0.01206510250268046</v>
+      </c>
+      <c r="H9">
+        <v>-0.03916509747453775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1331044308138598</v>
+        <v>-0.1872925161802088</v>
       </c>
       <c r="C10">
-        <v>-0.1861279774272599</v>
+        <v>0.1605055565744868</v>
       </c>
       <c r="D10">
-        <v>0.005663531435872538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01171068775880511</v>
+      </c>
+      <c r="E10">
+        <v>-0.02989903407859266</v>
+      </c>
+      <c r="F10">
+        <v>0.04368964414437969</v>
+      </c>
+      <c r="G10">
+        <v>0.02645100364072379</v>
+      </c>
+      <c r="H10">
+        <v>0.05515524308407803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0326752013716247</v>
+        <v>-0.02422936825671832</v>
       </c>
       <c r="C11">
-        <v>0.04357470250727074</v>
+        <v>-0.0526476702501435</v>
       </c>
       <c r="D11">
-        <v>0.06047646429140258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05215366429262487</v>
+      </c>
+      <c r="E11">
+        <v>0.0224455091031947</v>
+      </c>
+      <c r="F11">
+        <v>-0.01193135558403407</v>
+      </c>
+      <c r="G11">
+        <v>-0.02510649653671856</v>
+      </c>
+      <c r="H11">
+        <v>-0.03940457878852926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03819834847684023</v>
+        <v>-0.02713582323109871</v>
       </c>
       <c r="C12">
-        <v>0.04646541354976261</v>
+        <v>-0.05482117065980655</v>
       </c>
       <c r="D12">
-        <v>0.07155946185945769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0537611575569945</v>
+      </c>
+      <c r="E12">
+        <v>0.01804238883740686</v>
+      </c>
+      <c r="F12">
+        <v>-0.01823480605753993</v>
+      </c>
+      <c r="G12">
+        <v>-0.02653244675698988</v>
+      </c>
+      <c r="H12">
+        <v>-0.06678621756159854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.010490657575764</v>
+        <v>-0.01024210851128543</v>
       </c>
       <c r="C13">
-        <v>0.03700875520636633</v>
+        <v>-0.04630330660955383</v>
       </c>
       <c r="D13">
-        <v>0.1589546599208929</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1611200490904966</v>
+      </c>
+      <c r="E13">
+        <v>0.02307513976583229</v>
+      </c>
+      <c r="F13">
+        <v>0.04980216577557621</v>
+      </c>
+      <c r="G13">
+        <v>-0.06488251565386706</v>
+      </c>
+      <c r="H13">
+        <v>-0.02453370958347901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.003379191531590999</v>
+        <v>-0.003357268919010997</v>
       </c>
       <c r="C14">
-        <v>0.02558385344072027</v>
+        <v>-0.02894543932312023</v>
       </c>
       <c r="D14">
-        <v>0.1135692730282268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1080811428566991</v>
+      </c>
+      <c r="E14">
+        <v>0.009824902041372261</v>
+      </c>
+      <c r="F14">
+        <v>0.02088350962370798</v>
+      </c>
+      <c r="G14">
+        <v>-0.08289085287237724</v>
+      </c>
+      <c r="H14">
+        <v>-0.06754219893214555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002723367877707496</v>
+        <v>-0.0009385533975346591</v>
       </c>
       <c r="C15">
-        <v>0.005997065424389934</v>
+        <v>-0.01487165429962493</v>
       </c>
       <c r="D15">
-        <v>0.01263131744473837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04283105292835392</v>
+      </c>
+      <c r="E15">
+        <v>-0.000283136765528942</v>
+      </c>
+      <c r="F15">
+        <v>0.003421177921162702</v>
+      </c>
+      <c r="G15">
+        <v>-0.01922196791619803</v>
+      </c>
+      <c r="H15">
+        <v>-0.0004624233989021086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.029214249835098</v>
+        <v>-0.02183267363392774</v>
       </c>
       <c r="C16">
-        <v>0.04525414463656754</v>
+        <v>-0.05130234642237862</v>
       </c>
       <c r="D16">
-        <v>0.07564099441136832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06029218115465275</v>
+      </c>
+      <c r="E16">
+        <v>0.01409334939513065</v>
+      </c>
+      <c r="F16">
+        <v>-0.001055406380271986</v>
+      </c>
+      <c r="G16">
+        <v>-0.03585965718640184</v>
+      </c>
+      <c r="H16">
+        <v>-0.06042211910467952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01084981725516666</v>
+        <v>-0.005416675640845504</v>
       </c>
       <c r="C19">
-        <v>0.03199955022794154</v>
+        <v>-0.02809223038937116</v>
       </c>
       <c r="D19">
-        <v>0.1663885866513835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1175519642695195</v>
+      </c>
+      <c r="E19">
+        <v>-0.02507902811579012</v>
+      </c>
+      <c r="F19">
+        <v>0.005253830667745618</v>
+      </c>
+      <c r="G19">
+        <v>-0.05350244838567952</v>
+      </c>
+      <c r="H19">
+        <v>-0.06146172484402133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01383630041120354</v>
+        <v>-0.01213722975130012</v>
       </c>
       <c r="C20">
-        <v>0.0358339002275021</v>
+        <v>-0.04085265816373887</v>
       </c>
       <c r="D20">
-        <v>0.1057320634909356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1087492474473333</v>
+      </c>
+      <c r="E20">
+        <v>-0.01372871524814169</v>
+      </c>
+      <c r="F20">
+        <v>0.02872472169414557</v>
+      </c>
+      <c r="G20">
+        <v>-0.05166566422412105</v>
+      </c>
+      <c r="H20">
+        <v>-0.04809668070036243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01008973578465971</v>
+        <v>-0.00467837260794714</v>
       </c>
       <c r="C21">
-        <v>0.03786843754021528</v>
+        <v>-0.04490189711122088</v>
       </c>
       <c r="D21">
-        <v>0.1773253851439889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1611757970632767</v>
+      </c>
+      <c r="E21">
+        <v>-0.03229087824411046</v>
+      </c>
+      <c r="F21">
+        <v>0.06617030922499767</v>
+      </c>
+      <c r="G21">
+        <v>-0.08624606250857551</v>
+      </c>
+      <c r="H21">
+        <v>-0.09678950773015038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002257674224710335</v>
+        <v>-0.002454373459176549</v>
       </c>
       <c r="C22">
-        <v>0.05031289654939969</v>
+        <v>-0.05869810241096646</v>
       </c>
       <c r="D22">
-        <v>0.1484764488634778</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2113063414768707</v>
+      </c>
+      <c r="E22">
+        <v>0.03064895412662303</v>
+      </c>
+      <c r="F22">
+        <v>0.04388093905290141</v>
+      </c>
+      <c r="G22">
+        <v>-0.01420058812189413</v>
+      </c>
+      <c r="H22">
+        <v>0.4751182449266205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.002433167687460293</v>
+        <v>-0.002930635590117395</v>
       </c>
       <c r="C23">
-        <v>0.05064030271980141</v>
+        <v>-0.05909149159094593</v>
       </c>
       <c r="D23">
-        <v>0.1479899283648471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2114931792861901</v>
+      </c>
+      <c r="E23">
+        <v>0.02829907425674721</v>
+      </c>
+      <c r="F23">
+        <v>0.04243663631783268</v>
+      </c>
+      <c r="G23">
+        <v>-0.01244167023676953</v>
+      </c>
+      <c r="H23">
+        <v>0.4752564801983907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03597648883335405</v>
+        <v>-0.02416613422566363</v>
       </c>
       <c r="C24">
-        <v>0.0578357478513166</v>
+        <v>-0.06349047307376086</v>
       </c>
       <c r="D24">
-        <v>0.07410764210216017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05922436550697651</v>
+      </c>
+      <c r="E24">
+        <v>0.0149538700920445</v>
+      </c>
+      <c r="F24">
+        <v>0.001994534905244054</v>
+      </c>
+      <c r="G24">
+        <v>-0.0427774721824079</v>
+      </c>
+      <c r="H24">
+        <v>-0.06564118425125406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0406945412199816</v>
+        <v>-0.02950436881065855</v>
       </c>
       <c r="C25">
-        <v>0.05209102356600775</v>
+        <v>-0.06104583719973953</v>
       </c>
       <c r="D25">
-        <v>0.07397119531414319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06152807653632331</v>
+      </c>
+      <c r="E25">
+        <v>0.005738636350149182</v>
+      </c>
+      <c r="F25">
+        <v>-0.006197228258266913</v>
+      </c>
+      <c r="G25">
+        <v>-0.02084042307636011</v>
+      </c>
+      <c r="H25">
+        <v>-0.04520228758463532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01264729456981241</v>
+        <v>-0.01096538490359511</v>
       </c>
       <c r="C26">
-        <v>0.01623771218263704</v>
+        <v>-0.02432602568597157</v>
       </c>
       <c r="D26">
-        <v>0.08071263388212496</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07292106172813174</v>
+      </c>
+      <c r="E26">
+        <v>0.008605232594152216</v>
+      </c>
+      <c r="F26">
+        <v>0.02357259874638045</v>
+      </c>
+      <c r="G26">
+        <v>-0.0469765303553934</v>
+      </c>
+      <c r="H26">
+        <v>-0.05858490347962139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1966302279139547</v>
+        <v>-0.266083124977681</v>
       </c>
       <c r="C28">
-        <v>-0.2483621693830797</v>
+        <v>0.2054608085229591</v>
       </c>
       <c r="D28">
-        <v>0.001510882851256327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0005365296768645914</v>
+      </c>
+      <c r="E28">
+        <v>-0.05969811491633165</v>
+      </c>
+      <c r="F28">
+        <v>0.04741927126021683</v>
+      </c>
+      <c r="G28">
+        <v>0.04526959325682053</v>
+      </c>
+      <c r="H28">
+        <v>0.03650613470224565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.002890933233984306</v>
+        <v>-0.003163504840426823</v>
       </c>
       <c r="C29">
-        <v>0.02465282081329203</v>
+        <v>-0.02873199587421819</v>
       </c>
       <c r="D29">
-        <v>0.1075416309974305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1070803195239184</v>
+      </c>
+      <c r="E29">
+        <v>0.02431945251420455</v>
+      </c>
+      <c r="F29">
+        <v>0.03563124181629144</v>
+      </c>
+      <c r="G29">
+        <v>-0.07232781400662441</v>
+      </c>
+      <c r="H29">
+        <v>-0.07118857867839856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02963478898678445</v>
+        <v>-0.02585651091343939</v>
       </c>
       <c r="C30">
-        <v>0.06536131126728779</v>
+        <v>-0.07876926262899453</v>
       </c>
       <c r="D30">
-        <v>0.1693954203421179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1685209645038273</v>
+      </c>
+      <c r="E30">
+        <v>0.02364673652983832</v>
+      </c>
+      <c r="F30">
+        <v>0.04082816057518742</v>
+      </c>
+      <c r="G30">
+        <v>-0.04665848665908444</v>
+      </c>
+      <c r="H30">
+        <v>-0.02095472557621439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05430335569346834</v>
+        <v>-0.03604369860261</v>
       </c>
       <c r="C31">
-        <v>0.07742912374785228</v>
+        <v>-0.08537986596461565</v>
       </c>
       <c r="D31">
-        <v>0.06877536814516436</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04848530898692806</v>
+      </c>
+      <c r="E31">
+        <v>0.002592679836475287</v>
+      </c>
+      <c r="F31">
+        <v>0.02244804535960656</v>
+      </c>
+      <c r="G31">
+        <v>-0.01920523197012377</v>
+      </c>
+      <c r="H31">
+        <v>-0.02128046422159024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02587895535393616</v>
+        <v>-0.02288294344689519</v>
       </c>
       <c r="C32">
-        <v>0.02730113001214253</v>
+        <v>-0.03375351200963678</v>
       </c>
       <c r="D32">
-        <v>0.1124007831739394</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1263565245338782</v>
+      </c>
+      <c r="E32">
+        <v>-0.01512313073413406</v>
+      </c>
+      <c r="F32">
+        <v>0.04992353456064069</v>
+      </c>
+      <c r="G32">
+        <v>-0.04312536205478756</v>
+      </c>
+      <c r="H32">
+        <v>-0.01123265853766543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02192397134216359</v>
+        <v>-0.02009403744970618</v>
       </c>
       <c r="C33">
-        <v>0.04517060897221275</v>
+        <v>-0.05183942081192049</v>
       </c>
       <c r="D33">
-        <v>0.1608946950122274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1424341894060884</v>
+      </c>
+      <c r="E33">
+        <v>-0.001032935251148612</v>
+      </c>
+      <c r="F33">
+        <v>0.02933391109651862</v>
+      </c>
+      <c r="G33">
+        <v>-0.04148543883270325</v>
+      </c>
+      <c r="H33">
+        <v>-0.04427613531373185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03445521590813545</v>
+        <v>-0.02209663049083289</v>
       </c>
       <c r="C34">
-        <v>0.06299614663826351</v>
+        <v>-0.06551354234961951</v>
       </c>
       <c r="D34">
-        <v>0.07108433612588656</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04893865220143838</v>
+      </c>
+      <c r="E34">
+        <v>0.03009183231005623</v>
+      </c>
+      <c r="F34">
+        <v>-0.02227005561488615</v>
+      </c>
+      <c r="G34">
+        <v>-0.0382355866022038</v>
+      </c>
+      <c r="H34">
+        <v>-0.05591978869815107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.001157277780757454</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002502613067577745</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01116683063949462</v>
+      </c>
+      <c r="E35">
+        <v>0.001278113264725099</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002288880535248212</v>
+      </c>
+      <c r="G35">
+        <v>-0.002011905518577882</v>
+      </c>
+      <c r="H35">
+        <v>-0.003364372771293993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0182645185755668</v>
+        <v>-0.01630448157782411</v>
       </c>
       <c r="C36">
-        <v>0.008415836147846537</v>
+        <v>-0.01991949028656123</v>
       </c>
       <c r="D36">
-        <v>0.1020712572596439</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08718005216497532</v>
+      </c>
+      <c r="E36">
+        <v>-0.0005112478627884186</v>
+      </c>
+      <c r="F36">
+        <v>0.02567751307565402</v>
+      </c>
+      <c r="G36">
+        <v>-0.03099877108604671</v>
+      </c>
+      <c r="H36">
+        <v>-0.05114084060079124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01834913287687889</v>
+        <v>-0.02238007482173857</v>
       </c>
       <c r="C38">
-        <v>0.01613054709947946</v>
+        <v>-0.02091550131863482</v>
       </c>
       <c r="D38">
-        <v>0.09065429187271995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08524061546368188</v>
+      </c>
+      <c r="E38">
+        <v>-0.01716492280477648</v>
+      </c>
+      <c r="F38">
+        <v>-0.02008217103290706</v>
+      </c>
+      <c r="G38">
+        <v>-0.03817478694072773</v>
+      </c>
+      <c r="H38">
+        <v>-0.03963102065454757</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03711477929226371</v>
+        <v>-0.02656746476120344</v>
       </c>
       <c r="C39">
-        <v>0.05900340434811396</v>
+        <v>-0.07440180516472397</v>
       </c>
       <c r="D39">
-        <v>0.1150306024199923</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1107658392145804</v>
+      </c>
+      <c r="E39">
+        <v>0.03532975091720242</v>
+      </c>
+      <c r="F39">
+        <v>-0.003784469059945883</v>
+      </c>
+      <c r="G39">
+        <v>-0.05170143514986432</v>
+      </c>
+      <c r="H39">
+        <v>-0.08268843819476523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01558939576895992</v>
+        <v>-0.009885314145999722</v>
       </c>
       <c r="C40">
-        <v>0.04422074930605049</v>
+        <v>-0.04091257446574766</v>
       </c>
       <c r="D40">
-        <v>0.1133391876455723</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1025693168378876</v>
+      </c>
+      <c r="E40">
+        <v>-0.004540242942448212</v>
+      </c>
+      <c r="F40">
+        <v>0.04338663623157904</v>
+      </c>
+      <c r="G40">
+        <v>-0.227962698926199</v>
+      </c>
+      <c r="H40">
+        <v>0.05407874568936096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03175678545955493</v>
+        <v>-0.02850692429842557</v>
       </c>
       <c r="C41">
-        <v>0.006630487178204459</v>
+        <v>-0.01683665469334074</v>
       </c>
       <c r="D41">
-        <v>0.09224441071795751</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.06313418189262147</v>
+      </c>
+      <c r="E41">
+        <v>-0.01650791738840124</v>
+      </c>
+      <c r="F41">
+        <v>0.00515690128626483</v>
+      </c>
+      <c r="G41">
+        <v>-0.03720542441967552</v>
+      </c>
+      <c r="H41">
+        <v>-0.03172428605066166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02315729606060168</v>
+        <v>-0.01907718356268985</v>
       </c>
       <c r="C43">
-        <v>0.01352247886165453</v>
+        <v>-0.02060993354906228</v>
       </c>
       <c r="D43">
-        <v>0.1123876376137362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08096940791172898</v>
+      </c>
+      <c r="E43">
+        <v>-0.005070602522879662</v>
+      </c>
+      <c r="F43">
+        <v>0.008009773487285283</v>
+      </c>
+      <c r="G43">
+        <v>-0.04976392468000013</v>
+      </c>
+      <c r="H43">
+        <v>-0.05709967566339282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009711949707670024</v>
+        <v>-0.009964783846366282</v>
       </c>
       <c r="C44">
-        <v>0.04377176257577484</v>
+        <v>-0.04478027339926745</v>
       </c>
       <c r="D44">
-        <v>0.1021639999969857</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1139012325236049</v>
+      </c>
+      <c r="E44">
+        <v>-0.01092971727680313</v>
+      </c>
+      <c r="F44">
+        <v>0.02367318854956293</v>
+      </c>
+      <c r="G44">
+        <v>-0.04681579721643996</v>
+      </c>
+      <c r="H44">
+        <v>-0.03532233882780371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01401662666645243</v>
+        <v>-0.00875873758147987</v>
       </c>
       <c r="C46">
-        <v>0.0264777115502929</v>
+        <v>-0.03402064570021397</v>
       </c>
       <c r="D46">
-        <v>0.1124358184083918</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.1005768431941255</v>
+      </c>
+      <c r="E46">
+        <v>0.009914954118696365</v>
+      </c>
+      <c r="F46">
+        <v>0.02560386158767243</v>
+      </c>
+      <c r="G46">
+        <v>-0.0683951984554628</v>
+      </c>
+      <c r="H46">
+        <v>-0.08140114301856967</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09028649612931067</v>
+        <v>-0.06578307422025269</v>
       </c>
       <c r="C47">
-        <v>0.08869402308278997</v>
+        <v>-0.1051805511026118</v>
       </c>
       <c r="D47">
-        <v>0.04232645908119758</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02863647427036862</v>
+      </c>
+      <c r="E47">
+        <v>-0.01816829564719967</v>
+      </c>
+      <c r="F47">
+        <v>0.006505107043358256</v>
+      </c>
+      <c r="G47">
+        <v>0.03547483150714668</v>
+      </c>
+      <c r="H47">
+        <v>-0.01973619043391769</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01187077356288329</v>
+        <v>-0.01113019451786248</v>
       </c>
       <c r="C48">
-        <v>0.02162787699238583</v>
+        <v>-0.02790075414036713</v>
       </c>
       <c r="D48">
-        <v>0.1004443559028269</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0922208090109265</v>
+      </c>
+      <c r="E48">
+        <v>-0.02113438604677334</v>
+      </c>
+      <c r="F48">
+        <v>0.02998138862440762</v>
+      </c>
+      <c r="G48">
+        <v>-0.04690065559975101</v>
+      </c>
+      <c r="H48">
+        <v>-0.06414280329526639</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04965953489941983</v>
+        <v>-0.0342168465376561</v>
       </c>
       <c r="C50">
-        <v>0.06169072201166646</v>
+        <v>-0.0720416294941697</v>
       </c>
       <c r="D50">
-        <v>0.07349574032496413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05936932900998561</v>
+      </c>
+      <c r="E50">
+        <v>-0.003017652183966763</v>
+      </c>
+      <c r="F50">
+        <v>0.01321340061306645</v>
+      </c>
+      <c r="G50">
+        <v>-0.02793750114316955</v>
+      </c>
+      <c r="H50">
+        <v>-0.002626385566053034</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.007778847087115432</v>
+        <v>-0.006593773936594514</v>
       </c>
       <c r="C51">
-        <v>0.01161122683678372</v>
+        <v>-0.01860576046332644</v>
       </c>
       <c r="D51">
-        <v>0.0784322058495858</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08425202168567045</v>
+      </c>
+      <c r="E51">
+        <v>0.01697009729415817</v>
+      </c>
+      <c r="F51">
+        <v>0.03750431591609393</v>
+      </c>
+      <c r="G51">
+        <v>-0.07027484121060974</v>
+      </c>
+      <c r="H51">
+        <v>-0.02424217514608285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1052213523381346</v>
+        <v>-0.08456752291674369</v>
       </c>
       <c r="C53">
-        <v>0.1084318951561874</v>
+        <v>-0.1293905284868164</v>
       </c>
       <c r="D53">
-        <v>0.005346946819316216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004015031554086377</v>
+      </c>
+      <c r="E53">
+        <v>-0.06380551564665403</v>
+      </c>
+      <c r="F53">
+        <v>0.07861951582367278</v>
+      </c>
+      <c r="G53">
+        <v>-0.01570472743140146</v>
+      </c>
+      <c r="H53">
+        <v>0.01604996857988643</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01815839078368933</v>
+        <v>-0.01507847652875157</v>
       </c>
       <c r="C54">
-        <v>0.02746330278071801</v>
+        <v>-0.03557893176394687</v>
       </c>
       <c r="D54">
-        <v>0.1227819889614233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.1007283799662151</v>
+      </c>
+      <c r="E54">
+        <v>-0.003206933618974522</v>
+      </c>
+      <c r="F54">
+        <v>0.007655217001513059</v>
+      </c>
+      <c r="G54">
+        <v>-0.07655415886804075</v>
+      </c>
+      <c r="H54">
+        <v>-0.04515192422760148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09713400402074893</v>
+        <v>-0.07502580402800069</v>
       </c>
       <c r="C55">
-        <v>0.0835950085380589</v>
+        <v>-0.1040194979337462</v>
       </c>
       <c r="D55">
-        <v>-0.01104418361691201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01458526202072887</v>
+      </c>
+      <c r="E55">
+        <v>-0.02179233869499978</v>
+      </c>
+      <c r="F55">
+        <v>0.0457491481326238</v>
+      </c>
+      <c r="G55">
+        <v>-0.02099408969590381</v>
+      </c>
+      <c r="H55">
+        <v>0.04192877820395581</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1342032397829611</v>
+        <v>-0.1038511962464421</v>
       </c>
       <c r="C56">
-        <v>0.1163409953099452</v>
+        <v>-0.1521991145964366</v>
       </c>
       <c r="D56">
-        <v>-0.011827371877866</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01609005333917098</v>
+      </c>
+      <c r="E56">
+        <v>-0.04753757393162597</v>
+      </c>
+      <c r="F56">
+        <v>0.03809728967435375</v>
+      </c>
+      <c r="G56">
+        <v>-0.01483886660913128</v>
+      </c>
+      <c r="H56">
+        <v>0.06466474794027019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01014445580473788</v>
+        <v>0.001452435824708082</v>
       </c>
       <c r="C58">
-        <v>0.03887138178242595</v>
+        <v>-0.0517897570534725</v>
       </c>
       <c r="D58">
-        <v>0.2181041656084572</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2814172461074045</v>
+      </c>
+      <c r="E58">
+        <v>-0.05275490822744243</v>
+      </c>
+      <c r="F58">
+        <v>0.08162903197186908</v>
+      </c>
+      <c r="G58">
+        <v>-0.0379559875785689</v>
+      </c>
+      <c r="H58">
+        <v>0.1649184839071582</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1507888154906428</v>
+        <v>-0.2042362673234077</v>
       </c>
       <c r="C59">
-        <v>-0.1685518768474985</v>
+        <v>0.134540677866036</v>
       </c>
       <c r="D59">
-        <v>0.05296319416572125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06654215673258292</v>
+      </c>
+      <c r="E59">
+        <v>-0.04155267898737013</v>
+      </c>
+      <c r="F59">
+        <v>0.004305003859544258</v>
+      </c>
+      <c r="G59">
+        <v>0.01295613212162534</v>
+      </c>
+      <c r="H59">
+        <v>0.01749136161614304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2374111153164472</v>
+        <v>-0.2067089165756663</v>
       </c>
       <c r="C60">
-        <v>0.08158762704501632</v>
+        <v>-0.1391180920430503</v>
       </c>
       <c r="D60">
-        <v>0.1352910944268664</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.07610460039499822</v>
+      </c>
+      <c r="E60">
+        <v>0.3125078157928704</v>
+      </c>
+      <c r="F60">
+        <v>-0.1402424446207142</v>
+      </c>
+      <c r="G60">
+        <v>0.2768515372265492</v>
+      </c>
+      <c r="H60">
+        <v>0.05632200228761997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04108514843473399</v>
+        <v>-0.02970599028754841</v>
       </c>
       <c r="C61">
-        <v>0.05669787232654986</v>
+        <v>-0.06883348806556908</v>
       </c>
       <c r="D61">
-        <v>0.1169047536084535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0936377466711789</v>
+      </c>
+      <c r="E61">
+        <v>0.02716811640947422</v>
+      </c>
+      <c r="F61">
+        <v>-0.008406689677951405</v>
+      </c>
+      <c r="G61">
+        <v>-0.03004119945645881</v>
+      </c>
+      <c r="H61">
+        <v>-0.08185118103406161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01389979315150714</v>
+        <v>-0.01023771085755193</v>
       </c>
       <c r="C63">
-        <v>0.02612751595375824</v>
+        <v>-0.034749277231048</v>
       </c>
       <c r="D63">
-        <v>0.09317214243410304</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0776293313426543</v>
+      </c>
+      <c r="E63">
+        <v>0.01596696673399236</v>
+      </c>
+      <c r="F63">
+        <v>0.0234361270830141</v>
+      </c>
+      <c r="G63">
+        <v>-0.03954389345844812</v>
+      </c>
+      <c r="H63">
+        <v>-0.04271900628381513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0547719065467908</v>
+        <v>-0.03674291766451051</v>
       </c>
       <c r="C64">
-        <v>0.07189836224296542</v>
+        <v>-0.08380844603529916</v>
       </c>
       <c r="D64">
-        <v>0.05310799703725172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0495470644755525</v>
+      </c>
+      <c r="E64">
+        <v>0.00605050832933282</v>
+      </c>
+      <c r="F64">
+        <v>0.05268015780573696</v>
+      </c>
+      <c r="G64">
+        <v>-0.01024063091713112</v>
+      </c>
+      <c r="H64">
+        <v>-0.1093703357766005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03025401085123544</v>
+        <v>-0.02583260632803969</v>
       </c>
       <c r="C65">
-        <v>0.0226070639892607</v>
+        <v>-0.03610859986141413</v>
       </c>
       <c r="D65">
-        <v>0.1223032950155936</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1089358750340875</v>
+      </c>
+      <c r="E65">
+        <v>0.02814953817658214</v>
+      </c>
+      <c r="F65">
+        <v>0.0224932970168551</v>
+      </c>
+      <c r="G65">
+        <v>-0.02243615411051592</v>
+      </c>
+      <c r="H65">
+        <v>-0.003126545248721779</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03965675530472978</v>
+        <v>-0.02784487707185505</v>
       </c>
       <c r="C66">
-        <v>0.06870777036399035</v>
+        <v>-0.08771261284083845</v>
       </c>
       <c r="D66">
-        <v>0.1288357829848745</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1356544610863913</v>
+      </c>
+      <c r="E66">
+        <v>0.02969471260204525</v>
+      </c>
+      <c r="F66">
+        <v>-0.0134820260834315</v>
+      </c>
+      <c r="G66">
+        <v>-0.02976767161368033</v>
+      </c>
+      <c r="H66">
+        <v>-0.046283656531978</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03987049839129589</v>
+        <v>-0.03778066671785845</v>
       </c>
       <c r="C67">
-        <v>0.02268585829078794</v>
+        <v>-0.0304504441741217</v>
       </c>
       <c r="D67">
-        <v>0.04962929454983438</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03580152037002126</v>
+      </c>
+      <c r="E67">
+        <v>0.0001407890621019563</v>
+      </c>
+      <c r="F67">
+        <v>-0.03336318879747081</v>
+      </c>
+      <c r="G67">
+        <v>-0.03735895566858335</v>
+      </c>
+      <c r="H67">
+        <v>-0.05383708067482413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1849663457972776</v>
+        <v>-0.2358154658828692</v>
       </c>
       <c r="C68">
-        <v>-0.1989055785958815</v>
+        <v>0.1525026569049863</v>
       </c>
       <c r="D68">
-        <v>0.02220573001332985</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02733325363202285</v>
+      </c>
+      <c r="E68">
+        <v>-0.01058591046499775</v>
+      </c>
+      <c r="F68">
+        <v>0.03227820241451348</v>
+      </c>
+      <c r="G68">
+        <v>-0.02480329204818512</v>
+      </c>
+      <c r="H68">
+        <v>0.0644745427577211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08285147114188121</v>
+        <v>-0.05791441141869085</v>
       </c>
       <c r="C69">
-        <v>0.103526632056638</v>
+        <v>-0.1109797185234751</v>
       </c>
       <c r="D69">
-        <v>0.07081378938449699</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0395349753082667</v>
+      </c>
+      <c r="E69">
+        <v>0.006286085608820461</v>
+      </c>
+      <c r="F69">
+        <v>-0.001484226787354549</v>
+      </c>
+      <c r="G69">
+        <v>0.0156656310940055</v>
+      </c>
+      <c r="H69">
+        <v>-0.02553269070297784</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1734381993380452</v>
+        <v>-0.2243540533871136</v>
       </c>
       <c r="C71">
-        <v>-0.2067374749507359</v>
+        <v>0.1619167826525054</v>
       </c>
       <c r="D71">
-        <v>0.02775560672623731</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03061050583948123</v>
+      </c>
+      <c r="E71">
+        <v>-0.02202199545439068</v>
+      </c>
+      <c r="F71">
+        <v>0.04524435179103959</v>
+      </c>
+      <c r="G71">
+        <v>-0.04341695472896968</v>
+      </c>
+      <c r="H71">
+        <v>0.04272122997397378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.110656955471662</v>
+        <v>-0.08844153364296019</v>
       </c>
       <c r="C72">
-        <v>0.06484180086910049</v>
+        <v>-0.1001512560086928</v>
       </c>
       <c r="D72">
-        <v>0.08199262744932349</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.07508644403665984</v>
+      </c>
+      <c r="E72">
+        <v>0.07101535674964637</v>
+      </c>
+      <c r="F72">
+        <v>0.01879828866298689</v>
+      </c>
+      <c r="G72">
+        <v>-0.02241059532546805</v>
+      </c>
+      <c r="H72">
+        <v>-0.03927977605813145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2066647785291135</v>
+        <v>-0.1810527329821986</v>
       </c>
       <c r="C73">
-        <v>0.0351661374159914</v>
+        <v>-0.1031314681101953</v>
       </c>
       <c r="D73">
-        <v>0.1775233108471014</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0719524316227094</v>
+      </c>
+      <c r="E73">
+        <v>0.5042521552498169</v>
+      </c>
+      <c r="F73">
+        <v>-0.1891550674155995</v>
+      </c>
+      <c r="G73">
+        <v>0.3532096835847194</v>
+      </c>
+      <c r="H73">
+        <v>-0.06662459055287687</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.109584698213174</v>
+        <v>-0.08205797598360844</v>
       </c>
       <c r="C74">
-        <v>0.09109141698263624</v>
+        <v>-0.1165631832845282</v>
       </c>
       <c r="D74">
-        <v>-0.02608461361630017</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03155994282185694</v>
+      </c>
+      <c r="E74">
+        <v>-0.02948202647028082</v>
+      </c>
+      <c r="F74">
+        <v>0.06596421291389142</v>
+      </c>
+      <c r="G74">
+        <v>0.01661989447978551</v>
+      </c>
+      <c r="H74">
+        <v>0.02532961390587771</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.256449131875586</v>
+        <v>-0.2001505970389607</v>
       </c>
       <c r="C75">
-        <v>0.1584813633463266</v>
+        <v>-0.2163172585311037</v>
       </c>
       <c r="D75">
-        <v>-0.1149219742258872</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1295383129428085</v>
+      </c>
+      <c r="E75">
+        <v>-0.09875264675765831</v>
+      </c>
+      <c r="F75">
+        <v>-0.004028131362383811</v>
+      </c>
+      <c r="G75">
+        <v>-0.02917962192335906</v>
+      </c>
+      <c r="H75">
+        <v>0.05197200762878077</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1459200850148137</v>
+        <v>-0.1093778607273988</v>
       </c>
       <c r="C76">
-        <v>0.1199105362910705</v>
+        <v>-0.151050369284718</v>
       </c>
       <c r="D76">
-        <v>-0.004311969758580216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02050082200753434</v>
+      </c>
+      <c r="E76">
+        <v>-0.05320005455739855</v>
+      </c>
+      <c r="F76">
+        <v>0.03258977628369394</v>
+      </c>
+      <c r="G76">
+        <v>-0.04871300096321912</v>
+      </c>
+      <c r="H76">
+        <v>0.01439170050493747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04221421410857053</v>
+        <v>-0.04901136198304037</v>
       </c>
       <c r="C77">
-        <v>0.07742915703479158</v>
+        <v>-0.08354938252460314</v>
       </c>
       <c r="D77">
-        <v>0.05540921989348036</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.206986777925668</v>
+      </c>
+      <c r="E77">
+        <v>-0.6142208670088857</v>
+      </c>
+      <c r="F77">
+        <v>-0.4783517755248174</v>
+      </c>
+      <c r="G77">
+        <v>0.4212476720466953</v>
+      </c>
+      <c r="H77">
+        <v>0.1592665216325579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04045316894302993</v>
+        <v>-0.03443042014314961</v>
       </c>
       <c r="C78">
-        <v>0.0631673168820913</v>
+        <v>-0.07590215114417055</v>
       </c>
       <c r="D78">
-        <v>0.1452599409863883</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1403970305855532</v>
+      </c>
+      <c r="E78">
+        <v>0.01790529189639133</v>
+      </c>
+      <c r="F78">
+        <v>0.03098536835729308</v>
+      </c>
+      <c r="G78">
+        <v>0.01284226799208295</v>
+      </c>
+      <c r="H78">
+        <v>-0.004657599777162314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06275096084811105</v>
+        <v>-0.05118987764541751</v>
       </c>
       <c r="C79">
-        <v>0.1091414439889</v>
+        <v>-0.1231983909452515</v>
       </c>
       <c r="D79">
-        <v>-0.1265477343659779</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05031125552540429</v>
+      </c>
+      <c r="E79">
+        <v>-0.2040702222757422</v>
+      </c>
+      <c r="F79">
+        <v>0.7146287426543537</v>
+      </c>
+      <c r="G79">
+        <v>0.5077157553946751</v>
+      </c>
+      <c r="H79">
+        <v>-0.1255844369412082</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.01969032519858777</v>
+        <v>-0.01491953104171864</v>
       </c>
       <c r="C80">
-        <v>0.04774660520424555</v>
+        <v>-0.04818806100451446</v>
       </c>
       <c r="D80">
-        <v>0.02825665023698758</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02590357457267725</v>
+      </c>
+      <c r="E80">
+        <v>0.001203767967704787</v>
+      </c>
+      <c r="F80">
+        <v>0.01865102423102303</v>
+      </c>
+      <c r="G80">
+        <v>-0.06463233441395991</v>
+      </c>
+      <c r="H80">
+        <v>0.02499626480289779</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1329657440222236</v>
+        <v>-0.09565368646958568</v>
       </c>
       <c r="C81">
-        <v>0.1234111083289453</v>
+        <v>-0.1467942117492137</v>
       </c>
       <c r="D81">
-        <v>-0.08606619498774719</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.08811303542527404</v>
+      </c>
+      <c r="E81">
+        <v>-0.09264909681212169</v>
+      </c>
+      <c r="F81">
+        <v>0.05704942445944459</v>
+      </c>
+      <c r="G81">
+        <v>-0.06632100884017288</v>
+      </c>
+      <c r="H81">
+        <v>-0.008579807768064527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2637868020592954</v>
+        <v>-0.1844579542598181</v>
       </c>
       <c r="C82">
-        <v>0.2485799642033503</v>
+        <v>-0.279130459156747</v>
       </c>
       <c r="D82">
-        <v>-0.2388863604582967</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2329130421943385</v>
+      </c>
+      <c r="E82">
+        <v>-0.04048314467516696</v>
+      </c>
+      <c r="F82">
+        <v>-0.06886906374542427</v>
+      </c>
+      <c r="G82">
+        <v>-0.07050934358041872</v>
+      </c>
+      <c r="H82">
+        <v>0.004517050523122549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02442463248074222</v>
+        <v>-0.01266563847404874</v>
       </c>
       <c r="C83">
-        <v>0.05800403722045239</v>
+        <v>-0.05466757192363091</v>
       </c>
       <c r="D83">
-        <v>0.03988952309376265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05045355109356681</v>
+      </c>
+      <c r="E83">
+        <v>-0.08297095372281227</v>
+      </c>
+      <c r="F83">
+        <v>-0.05030912208982583</v>
+      </c>
+      <c r="G83">
+        <v>-0.01823548222219607</v>
+      </c>
+      <c r="H83">
+        <v>-0.00233521451689578</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002522885979591984</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.009129059544254801</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02712158343745968</v>
+      </c>
+      <c r="E84">
+        <v>-0.007496214731901233</v>
+      </c>
+      <c r="F84">
+        <v>0.01883287828403021</v>
+      </c>
+      <c r="G84">
+        <v>-0.02849504097269404</v>
+      </c>
+      <c r="H84">
+        <v>0.02025741735210751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1678223860845443</v>
+        <v>-0.1259445474811059</v>
       </c>
       <c r="C85">
-        <v>0.1274116782220792</v>
+        <v>-0.1705482706496256</v>
       </c>
       <c r="D85">
-        <v>-0.06329279880152569</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08578933114427559</v>
+      </c>
+      <c r="E85">
+        <v>-0.01558230165416487</v>
+      </c>
+      <c r="F85">
+        <v>0.08927108901487546</v>
+      </c>
+      <c r="G85">
+        <v>-0.009518098313162525</v>
+      </c>
+      <c r="H85">
+        <v>0.008933512601887262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01649536418018418</v>
+        <v>-0.01491908993144306</v>
       </c>
       <c r="C86">
-        <v>0.03060378843193389</v>
+        <v>-0.03174523684383306</v>
       </c>
       <c r="D86">
-        <v>0.1013670618852538</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1110530112803613</v>
+      </c>
+      <c r="E86">
+        <v>-0.04514346224177829</v>
+      </c>
+      <c r="F86">
+        <v>-0.02208194533749574</v>
+      </c>
+      <c r="G86">
+        <v>-0.01826832713686562</v>
+      </c>
+      <c r="H86">
+        <v>-0.001650832031016537</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02787464941498089</v>
+        <v>-0.02848365029467164</v>
       </c>
       <c r="C87">
-        <v>0.02589274115611041</v>
+        <v>-0.04156775199098086</v>
       </c>
       <c r="D87">
-        <v>0.1291990043708876</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1484214908405535</v>
+      </c>
+      <c r="E87">
+        <v>-0.02410341207996385</v>
+      </c>
+      <c r="F87">
+        <v>0.03084420361799536</v>
+      </c>
+      <c r="G87">
+        <v>-0.05544487253198799</v>
+      </c>
+      <c r="H87">
+        <v>-0.003030866614415967</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.06895634316560725</v>
+        <v>-0.05358978998474107</v>
       </c>
       <c r="C88">
-        <v>0.04878207712083139</v>
+        <v>-0.06527766994288926</v>
       </c>
       <c r="D88">
-        <v>0.06416863727606824</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02787090033139635</v>
+      </c>
+      <c r="E88">
+        <v>0.02261908655764328</v>
+      </c>
+      <c r="F88">
+        <v>0.02859246584532738</v>
+      </c>
+      <c r="G88">
+        <v>-0.008059034724696065</v>
+      </c>
+      <c r="H88">
+        <v>-0.04203289772687579</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2786032067860927</v>
+        <v>-0.3518818842492739</v>
       </c>
       <c r="C89">
-        <v>-0.3717818786335825</v>
+        <v>0.2795472132421085</v>
       </c>
       <c r="D89">
-        <v>0.01198246128754896</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02081170418727603</v>
+      </c>
+      <c r="E89">
+        <v>-0.04776203299195758</v>
+      </c>
+      <c r="F89">
+        <v>0.01102593539100093</v>
+      </c>
+      <c r="G89">
+        <v>-0.09022158197942554</v>
+      </c>
+      <c r="H89">
+        <v>-0.1359871652047328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2254242152709887</v>
+        <v>-0.2791253031129977</v>
       </c>
       <c r="C90">
-        <v>-0.2723571912300465</v>
+        <v>0.1985954570225702</v>
       </c>
       <c r="D90">
-        <v>0.03737163248819431</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.04307309106286947</v>
+      </c>
+      <c r="E90">
+        <v>-0.01788204497014163</v>
+      </c>
+      <c r="F90">
+        <v>-0.01060351661387556</v>
+      </c>
+      <c r="G90">
+        <v>-0.04895028852422224</v>
+      </c>
+      <c r="H90">
+        <v>0.05340854447626825</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1707780626030292</v>
+        <v>-0.1237412539958301</v>
       </c>
       <c r="C91">
-        <v>0.1688829089031896</v>
+        <v>-0.1903274239351929</v>
       </c>
       <c r="D91">
-        <v>-0.1104275464264633</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.107234788854847</v>
+      </c>
+      <c r="E91">
+        <v>-0.1004703049178665</v>
+      </c>
+      <c r="F91">
+        <v>0.08470794619790797</v>
+      </c>
+      <c r="G91">
+        <v>0.005883762937508748</v>
+      </c>
+      <c r="H91">
+        <v>0.009663426870544195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1902832830659395</v>
+        <v>-0.2676384614196677</v>
       </c>
       <c r="C92">
-        <v>-0.2681953228727127</v>
+        <v>0.2243482127888058</v>
       </c>
       <c r="D92">
-        <v>0.02217476042083563</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03639415314902957</v>
+      </c>
+      <c r="E92">
+        <v>-0.1067520810097002</v>
+      </c>
+      <c r="F92">
+        <v>0.04063410413899834</v>
+      </c>
+      <c r="G92">
+        <v>-0.08439379207257293</v>
+      </c>
+      <c r="H92">
+        <v>-0.02744683129923962</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2444418915810039</v>
+        <v>-0.2952362726855794</v>
       </c>
       <c r="C93">
-        <v>-0.294940126334933</v>
+        <v>0.2139407439150631</v>
       </c>
       <c r="D93">
-        <v>0.03163842704193251</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.008902037146136533</v>
+      </c>
+      <c r="E93">
+        <v>0.03283829505998443</v>
+      </c>
+      <c r="F93">
+        <v>0.03062459726570505</v>
+      </c>
+      <c r="G93">
+        <v>0.03383567935089073</v>
+      </c>
+      <c r="H93">
+        <v>-0.001354850891694952</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3527600198401831</v>
+        <v>-0.2700441685627279</v>
       </c>
       <c r="C94">
-        <v>0.2188739067547369</v>
+        <v>-0.3050575433404505</v>
       </c>
       <c r="D94">
-        <v>-0.3408287046963757</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.355359295368778</v>
+      </c>
+      <c r="E94">
+        <v>-0.03467279050126507</v>
+      </c>
+      <c r="F94">
+        <v>-0.1098846744924261</v>
+      </c>
+      <c r="G94">
+        <v>-0.299592622380622</v>
+      </c>
+      <c r="H94">
+        <v>0.1481339156687177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06918972767015062</v>
+        <v>-0.05872001199512036</v>
       </c>
       <c r="C95">
-        <v>0.04854185115942496</v>
+        <v>-0.07084125697960474</v>
       </c>
       <c r="D95">
-        <v>0.09526149221164504</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09661247552043439</v>
+      </c>
+      <c r="E95">
+        <v>-0.1828255574044539</v>
+      </c>
+      <c r="F95">
+        <v>-0.2636022004260048</v>
+      </c>
+      <c r="G95">
+        <v>0.0252284283353102</v>
+      </c>
+      <c r="H95">
+        <v>-0.5272913063164069</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>5.917807532377042e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0002659429549289211</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0002422923323549206</v>
+      </c>
+      <c r="E97">
+        <v>0.0006305752308151626</v>
+      </c>
+      <c r="F97">
+        <v>5.979921971070772e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.0001598451396841138</v>
+      </c>
+      <c r="H97">
+        <v>-5.405271450046381e-05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1729409143524127</v>
+        <v>-0.1541939186572689</v>
       </c>
       <c r="C98">
-        <v>0.0567053595345957</v>
+        <v>-0.1063179132443889</v>
       </c>
       <c r="D98">
-        <v>0.1032922383894828</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05787494371891373</v>
+      </c>
+      <c r="E98">
+        <v>0.3048112477899169</v>
+      </c>
+      <c r="F98">
+        <v>-0.1067611533786414</v>
+      </c>
+      <c r="G98">
+        <v>0.2104635497550286</v>
+      </c>
+      <c r="H98">
+        <v>-0.002155437521691391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00308613244912676</v>
+        <v>-0.003411459381256313</v>
       </c>
       <c r="C101">
-        <v>0.02421005131219332</v>
+        <v>-0.02815789677415159</v>
       </c>
       <c r="D101">
-        <v>0.1076603507034671</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1068364312620429</v>
+      </c>
+      <c r="E101">
+        <v>0.02312449263868028</v>
+      </c>
+      <c r="F101">
+        <v>0.03555713418558307</v>
+      </c>
+      <c r="G101">
+        <v>-0.07252090196604706</v>
+      </c>
+      <c r="H101">
+        <v>-0.07208041731260743</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1220898131196138</v>
+        <v>-0.08145932733150536</v>
       </c>
       <c r="C102">
-        <v>0.1302967767170352</v>
+        <v>-0.137682851603255</v>
       </c>
       <c r="D102">
-        <v>-0.0887399490072024</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09341692747494815</v>
+      </c>
+      <c r="E102">
+        <v>-0.03691236785057159</v>
+      </c>
+      <c r="F102">
+        <v>-0.04751552814428202</v>
+      </c>
+      <c r="G102">
+        <v>-0.01194008009679736</v>
+      </c>
+      <c r="H102">
+        <v>-0.04664683997840947</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
